--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Linear KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="64">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -94,37 +94,37 @@
     <t xml:space="preserve">Fridge Door, Open Fridge, Ambient Shelf, Open Impulse Fridge, TWE Standalone Fridge, TWE Impulse Fridge Door, TWE Open Impulse Fridge, Impulse Fridge Door, Standalone Fridge</t>
   </si>
   <si>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_OUT_OF_STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_policy_from_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_include_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON_ZONE1_SKU_ALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Off Premise, Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_OUT_OF_STORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_PER_SCENE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_policy_from_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_include_policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_ZONE1_SKU_ALL</t>
   </si>
   <si>
     <t xml:space="preserve">2,3</t>
@@ -650,20 +650,20 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="2" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="27.2704081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,9 +744,7 @@
       <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6" t="n">
         <v>0</v>
       </c>
@@ -760,10 +758,10 @@
         <v>18</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="121.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -771,10 +769,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -789,9 +787,7 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6" t="n">
         <v>0</v>
       </c>
@@ -805,19 +801,19 @@
         <v>19</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
@@ -834,9 +830,7 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="9" t="n">
         <v>0</v>
       </c>
@@ -853,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -880,11 +874,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="45.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +917,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>19</v>
@@ -940,7 +934,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
@@ -973,7 +967,7 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
@@ -981,25 +975,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="49"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="44.2755102040816"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="14" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -1034,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -1046,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>14</v>
@@ -1063,10 +1057,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>1</v>
@@ -1078,7 +1072,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>34</v>
@@ -1100,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>38</v>
@@ -1108,10 +1102,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="17" t="n">
         <v>1</v>
@@ -1123,7 +1117,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>34</v>
@@ -1145,7 +1139,7 @@
         <v>37</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3" s="17" t="s">
         <v>38</v>
@@ -1153,10 +1147,10 @@
     </row>
     <row r="4" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="17" t="n">
         <v>1</v>
@@ -1168,7 +1162,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>34</v>
@@ -1192,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>38</v>
@@ -1200,10 +1194,10 @@
     </row>
     <row r="5" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="17" t="n">
         <v>1</v>
@@ -1215,7 +1209,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K5" s="17" t="n">
         <v>2</v>
@@ -1237,7 +1231,7 @@
         <v>37</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" s="17" t="s">
         <v>38</v>
@@ -1245,10 +1239,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="17" t="n">
         <v>1</v>
@@ -1260,7 +1254,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>42</v>
@@ -1282,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="17" t="s">
         <v>38</v>
@@ -1290,10 +1284,10 @@
     </row>
     <row r="7" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="17" t="n">
         <v>1</v>
@@ -1305,7 +1299,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K7" s="17" t="n">
         <v>2</v>
@@ -1329,7 +1323,7 @@
         <v>37</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" s="17" t="s">
         <v>38</v>
@@ -1337,10 +1331,10 @@
     </row>
     <row r="8" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="17" t="n">
         <v>1</v>
@@ -1352,7 +1346,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>42</v>
@@ -1376,7 +1370,7 @@
         <v>37</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8" s="17" t="s">
         <v>38</v>
@@ -1399,7 +1393,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>34</v>
@@ -1423,7 +1417,7 @@
         <v>37</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>38</v>
@@ -1446,7 +1440,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K10" s="20" t="n">
         <v>2</v>
@@ -1470,7 +1464,7 @@
         <v>37</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S10" s="20" t="s">
         <v>38</v>
@@ -1493,7 +1487,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>42</v>
@@ -1517,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S11" s="20" t="s">
         <v>38</v>
@@ -1540,7 +1534,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>1</v>
@@ -1562,10 +1556,10 @@
         <v>37</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1579,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K13" s="27" t="n">
         <v>4</v>
@@ -1607,10 +1601,10 @@
         <v>37</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1624,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>51</v>
@@ -1652,10 +1646,10 @@
         <v>37</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1669,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>51</v>
@@ -1697,10 +1691,10 @@
         <v>37</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1714,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K16" s="27" t="n">
         <v>3</v>
@@ -1742,7 +1736,7 @@
         <v>37</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" s="27"/>
     </row>
@@ -1763,7 +1757,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>53</v>
@@ -1785,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="27"/>
     </row>
@@ -1806,7 +1800,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>54</v>
@@ -1828,7 +1822,7 @@
         <v>37</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" s="27"/>
     </row>
@@ -1849,7 +1843,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K19" s="27" t="s">
         <v>53</v>
@@ -1871,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="27"/>
     </row>
@@ -1896,7 +1890,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>34</v>
@@ -1918,10 +1912,10 @@
         <v>18</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1939,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>34</v>
@@ -1967,10 +1961,10 @@
         <v>18</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,7 +1988,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>34</v>
@@ -2018,10 +2012,10 @@
         <v>18</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2039,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K23" s="17" t="n">
         <v>2</v>
@@ -2067,10 +2061,10 @@
         <v>18</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,7 +2088,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>42</v>
@@ -2116,10 +2110,10 @@
         <v>18</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,7 +2137,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K25" s="17" t="n">
         <v>2</v>
@@ -2167,10 +2161,10 @@
         <v>18</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2188,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>42</v>
@@ -2218,10 +2212,10 @@
         <v>18</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2239,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>34</v>
@@ -2269,10 +2263,10 @@
         <v>18</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2290,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>42</v>
@@ -2320,10 +2314,10 @@
         <v>18</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,7 +2341,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K29" s="20" t="n">
         <v>2</v>
@@ -2371,10 +2365,10 @@
         <v>18</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,7 +2392,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K30" s="23" t="n">
         <v>1</v>
@@ -2420,10 +2414,10 @@
         <v>18</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,7 +2441,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K31" s="27" t="n">
         <v>4</v>
@@ -2469,10 +2463,10 @@
         <v>18</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2490,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>51</v>
@@ -2518,10 +2512,10 @@
         <v>18</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2539,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>51</v>
@@ -2567,10 +2561,10 @@
         <v>18</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2588,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K34" s="27" t="n">
         <v>3</v>
@@ -2616,10 +2610,10 @@
         <v>18</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,7 +2637,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>53</v>
@@ -2665,10 +2659,10 @@
         <v>18</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2686,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>53</v>
@@ -2714,10 +2708,10 @@
         <v>18</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2735,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K37" s="27" t="s">
         <v>54</v>
@@ -2763,10 +2757,10 @@
         <v>18</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2788,7 @@
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>34</v>
@@ -2817,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +2839,7 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>34</v>
@@ -2868,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2890,7 @@
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K40" s="17" t="s">
         <v>34</v>
@@ -2921,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,7 +2943,7 @@
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K41" s="17" t="n">
         <v>2</v>
@@ -2972,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +2994,7 @@
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K42" s="17" t="s">
         <v>42</v>
@@ -3021,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3043,7 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K43" s="17" t="n">
         <v>2</v>
@@ -3072,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,7 +3094,7 @@
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K44" s="17" t="s">
         <v>42</v>
@@ -3123,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +3145,7 @@
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K45" s="20" t="s">
         <v>34</v>
@@ -3176,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,7 +3198,7 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>42</v>
@@ -3229,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3251,7 @@
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K47" s="20" t="n">
         <v>2</v>
@@ -3282,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3304,7 @@
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K48" s="23" t="n">
         <v>1</v>
@@ -3333,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3355,7 @@
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K49" s="27" t="s">
         <v>54</v>
@@ -3384,7 +3378,7 @@
         <v>9</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,7 +3406,7 @@
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K50" s="27" t="s">
         <v>53</v>
@@ -3435,7 +3429,7 @@
         <v>9</v>
       </c>
       <c r="S50" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,7 +3457,7 @@
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K51" s="27" t="s">
         <v>53</v>
@@ -3486,7 +3480,7 @@
         <v>9</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,7 +3508,7 @@
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K52" s="27" t="n">
         <v>4</v>
@@ -3537,7 +3531,7 @@
         <v>9</v>
       </c>
       <c r="S52" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,7 +3559,7 @@
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K53" s="27" t="s">
         <v>51</v>
@@ -3588,7 +3582,7 @@
         <v>9</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +3610,7 @@
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K54" s="27" t="s">
         <v>51</v>
@@ -3639,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="S54" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +3661,7 @@
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K55" s="27" t="n">
         <v>3</v>
@@ -3690,7 +3684,7 @@
         <v>9</v>
       </c>
       <c r="S55" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3717,15 +3711,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="46.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="65">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">denominator_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context_fk</t>
   </si>
   <si>
     <t xml:space="preserve">percentage</t>
@@ -648,25 +651,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="P24" activeCellId="0" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="2" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="26.0510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,31 +722,34 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="n">
@@ -755,37 +762,40 @@
         <v>0</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="121.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="n">
@@ -798,35 +808,38 @@
         <v>0</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -841,13 +854,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>24</v>
+      <c r="Q4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -868,17 +884,17 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,53 +916,53 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -967,33 +983,33 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="42.6581632653061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="14" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -1028,10 +1044,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -1040,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>14</v>
@@ -1052,15 +1068,15 @@
         <v>15</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>1</v>
@@ -1072,40 +1088,40 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="17" t="n">
         <v>4</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="17" t="n">
         <v>1</v>
@@ -1117,40 +1133,40 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="17" t="n">
         <v>1</v>
@@ -1162,42 +1178,42 @@
       <c r="H4" s="18"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="N4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="17" t="n">
         <v>1</v>
@@ -1209,7 +1225,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="17" t="n">
         <v>2</v>
@@ -1218,31 +1234,31 @@
         <v>3</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="17" t="n">
         <v>1</v>
@@ -1254,40 +1270,40 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="17" t="n">
         <v>1</v>
@@ -1299,7 +1315,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="17" t="n">
         <v>2</v>
@@ -1308,33 +1324,33 @@
         <v>4</v>
       </c>
       <c r="M7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="N7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="17" t="n">
         <v>1</v>
@@ -1346,42 +1362,42 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="N8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>2</v>
@@ -1393,42 +1409,42 @@
       <c r="H9" s="21"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="N9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>2</v>
@@ -1440,7 +1456,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="20" t="n">
         <v>2</v>
@@ -1449,33 +1465,33 @@
         <v>4</v>
       </c>
       <c r="M10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="N10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>2</v>
@@ -1487,42 +1503,42 @@
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="N11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>3</v>
@@ -1534,40 +1550,40 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>4</v>
@@ -1579,7 +1595,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" s="27" t="n">
         <v>4</v>
@@ -1588,31 +1604,31 @@
         <v>4</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>4</v>
@@ -1624,40 +1640,40 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="27" t="n">
         <v>4</v>
@@ -1669,40 +1685,40 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="27" t="n">
         <v>4</v>
@@ -1714,7 +1730,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" s="27" t="n">
         <v>3</v>
@@ -1723,29 +1739,29 @@
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>4</v>
@@ -1757,38 +1773,38 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="27" t="n">
         <v>4</v>
@@ -1800,38 +1816,38 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="27" t="n">
         <v>4</v>
@@ -1843,203 +1859,203 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" s="17" t="n">
         <v>4</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N22" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23" s="17" t="n">
         <v>2</v>
@@ -2048,96 +2064,96 @@
         <v>3</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N23" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N24" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" s="17" t="n">
         <v>2</v>
@@ -2146,202 +2162,202 @@
         <v>4</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N25" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N26" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N27" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N28" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K29" s="20" t="n">
         <v>2</v>
@@ -2350,98 +2366,98 @@
         <v>4</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N29" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K30" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N30" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K31" s="27" t="n">
         <v>4</v>
@@ -2450,145 +2466,145 @@
         <v>4</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L33" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N33" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K34" s="27" t="n">
         <v>3</v>
@@ -2597,201 +2613,201 @@
         <v>3</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N34" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N36" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N37" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L38" s="17" t="n">
         <v>4</v>
@@ -2801,48 +2817,48 @@
         <v>1</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R38" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="17" t="n">
         <v>5</v>
@@ -2852,48 +2868,48 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L40" s="17" t="n">
         <v>5</v>
@@ -2903,47 +2919,47 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R40" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K41" s="17" t="n">
         <v>2</v>
@@ -2956,51 +2972,51 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R41" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="n">
@@ -3009,41 +3025,41 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K43" s="17" t="n">
         <v>2</v>
@@ -3057,50 +3073,50 @@
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R43" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17" t="n">
@@ -3108,47 +3124,47 @@
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R44" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L45" s="20" t="n">
         <v>5</v>
@@ -3158,100 +3174,100 @@
         <v>1</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R45" s="20" t="s">
         <v>9</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R46" s="20" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="20" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K47" s="20" t="n">
         <v>2</v>
@@ -3264,101 +3280,101 @@
         <v>1</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q47" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R47" s="20" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>3</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K48" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P48" s="23"/>
       <c r="Q48" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R48" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L49" s="27" t="n">
         <v>4</v>
@@ -3368,147 +3384,147 @@
         <v>1</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R49" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M50" s="27"/>
       <c r="N50" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R50" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M51" s="27"/>
       <c r="N51" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R51" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K52" s="27" t="n">
         <v>4</v>
@@ -3521,48 +3537,48 @@
         <v>1</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S52" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L53" s="27" t="n">
         <v>5</v>
@@ -3572,48 +3588,48 @@
         <v>1</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R53" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L54" s="27" t="n">
         <v>5</v>
@@ -3623,45 +3639,45 @@
         <v>1</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R54" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S54" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="27" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K55" s="27" t="n">
         <v>3</v>
@@ -3674,17 +3690,17 @@
         <v>1</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3705,21 +3721,21 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3744,14 +3760,14 @@
     </row>
     <row r="2" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="34"/>
@@ -3760,14 +3776,14 @@
     </row>
     <row r="3" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="34"/>
@@ -3776,14 +3792,14 @@
     </row>
     <row r="4" customFormat="false" ht="38.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="34"/>
@@ -3792,14 +3808,14 @@
     </row>
     <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="34"/>
@@ -3808,54 +3824,54 @@
     </row>
     <row r="6" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5"/>
     </row>

--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="65">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -88,12 +88,12 @@
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">Treasury Wine Estates</t>
-  </si>
-  <si>
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">White Wine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fridge Door, Open Fridge, Ambient Shelf, Open Impulse Fridge, TWE Standalone Fridge, TWE Impulse Fridge Door, TWE Open Impulse Fridge, Impulse Fridge Door, Standalone Fridge</t>
   </si>
   <si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">SIMON_ZONE1_SKU_ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off Premise, Hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">2,3</t>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">ZONE1_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasury Wine Estates</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE2_OWN_MANUFACTURER</t>
@@ -654,20 +654,20 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P24" activeCellId="0" sqref="P24"/>
+      <selection pane="topRight" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="24.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -726,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -785,14 +785,18 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
         <v>23</v>
@@ -820,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="80.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
         <v>27</v>
@@ -828,20 +832,24 @@
       <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="9" t="n">
@@ -890,11 +898,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="50.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,10 +933,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,10 +950,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,10 +967,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -984,32 +992,30 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="14" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="14" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,33 +1093,31 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,36 +1136,34 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L3" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
         <v>33</v>
       </c>
@@ -1177,38 +1179,36 @@
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
@@ -1224,9 +1224,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="17" t="n">
         <v>2</v>
       </c>
@@ -1234,23 +1232,23 @@
         <v>3</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,36 +1267,34 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="M6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>33</v>
       </c>
@@ -1314,9 +1310,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="17" t="n">
         <v>2</v>
       </c>
@@ -1324,28 +1318,28 @@
         <v>4</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="R7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1361,43 +1355,41 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="s">
+      <c r="Q8" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="R8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>2</v>
@@ -1408,43 +1400,41 @@
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="L9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="R9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>2</v>
@@ -1455,9 +1445,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J10" s="20"/>
       <c r="K10" s="20" t="n">
         <v>2</v>
       </c>
@@ -1465,33 +1453,33 @@
         <v>4</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="R10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>2</v>
@@ -1502,43 +1490,41 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="R11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>3</v>
@@ -1549,27 +1535,25 @@
       <c r="G12" s="24"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="J12" s="23"/>
       <c r="K12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="25" t="s">
-        <v>50</v>
-      </c>
       <c r="N12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R12" s="23" t="s">
         <v>24</v>
@@ -1580,10 +1564,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>4</v>
@@ -1594,9 +1578,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J13" s="27"/>
       <c r="K13" s="27" t="n">
         <v>4</v>
       </c>
@@ -1604,17 +1586,17 @@
         <v>4</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>24</v>
@@ -1625,10 +1607,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>4</v>
@@ -1639,27 +1621,25 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>24</v>
@@ -1668,12 +1648,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="27" t="n">
         <v>4</v>
@@ -1684,27 +1664,25 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>24</v>
@@ -1713,12 +1691,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="27" t="n">
         <v>4</v>
@@ -1729,9 +1707,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J16" s="27"/>
       <c r="K16" s="27" t="n">
         <v>3</v>
       </c>
@@ -1739,17 +1715,17 @@
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>24</v>
@@ -1758,10 +1734,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>4</v>
@@ -1772,39 +1748,37 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J17" s="27"/>
       <c r="K17" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="27" t="n">
         <v>4</v>
@@ -1815,39 +1789,37 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L18" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="27" t="n">
         <v>4</v>
@@ -1858,27 +1830,25 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J19" s="27"/>
       <c r="K19" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>24</v>
@@ -1887,10 +1857,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17" t="n">
         <v>1</v>
@@ -1901,27 +1871,25 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="N20" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="30" t="s">
@@ -1936,10 +1904,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17" t="n">
         <v>1</v>
@@ -1950,27 +1918,25 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L21" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="30" t="s">
@@ -1983,12 +1949,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="17" t="n">
         <v>1</v>
@@ -1999,30 +1965,28 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L22" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="30" t="s">
         <v>19</v>
@@ -2034,12 +1998,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="17" t="n">
         <v>1</v>
@@ -2050,13 +2014,11 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="17" t="n">
         <v>2</v>
       </c>
@@ -2064,13 +2026,13 @@
         <v>3</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N23" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="30" t="s">
@@ -2085,10 +2047,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17" t="n">
         <v>1</v>
@@ -2099,27 +2061,25 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="M24" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="30" t="s">
@@ -2132,12 +2092,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17" t="n">
         <v>1</v>
@@ -2148,13 +2108,11 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="17" t="n">
         <v>2</v>
       </c>
@@ -2162,16 +2120,16 @@
         <v>4</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="30" t="s">
         <v>19</v>
@@ -2183,12 +2141,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="17" t="n">
         <v>1</v>
@@ -2199,30 +2157,28 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J26" s="17"/>
       <c r="K26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="Q26" s="30" t="s">
         <v>19</v>
@@ -2234,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
         <v>57</v>
       </c>
@@ -2250,30 +2206,28 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="L27" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>19</v>
@@ -2285,7 +2239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
         <v>57</v>
       </c>
@@ -2301,30 +2255,28 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J28" s="20"/>
       <c r="K28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="M28" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>19</v>
@@ -2336,7 +2288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
         <v>57</v>
       </c>
@@ -2352,13 +2304,11 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="20" t="n">
         <v>2</v>
       </c>
@@ -2366,16 +2316,16 @@
         <v>4</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="32" t="s">
         <v>19</v>
@@ -2387,7 +2337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="116.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -2403,27 +2353,25 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="J30" s="23"/>
       <c r="K30" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="25" t="s">
-        <v>50</v>
-      </c>
       <c r="N30" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23" t="s">
@@ -2452,13 +2400,11 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J31" s="27"/>
       <c r="K31" s="27" t="n">
         <v>4</v>
       </c>
@@ -2466,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27" t="s">
@@ -2501,27 +2447,25 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="27" t="s">
@@ -2534,7 +2478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
         <v>59</v>
       </c>
@@ -2550,27 +2494,25 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J33" s="27"/>
       <c r="K33" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N33" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="27" t="s">
@@ -2583,7 +2525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
         <v>59</v>
       </c>
@@ -2599,13 +2541,11 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J34" s="27"/>
       <c r="K34" s="27" t="n">
         <v>3</v>
       </c>
@@ -2613,13 +2553,13 @@
         <v>3</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27" t="s">
@@ -2648,27 +2588,25 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J35" s="27"/>
       <c r="K35" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N35" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27" t="s">
@@ -2681,7 +2619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
         <v>59</v>
       </c>
@@ -2697,27 +2635,25 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27" t="s">
@@ -2730,7 +2666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
         <v>59</v>
       </c>
@@ -2746,27 +2682,25 @@
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J37" s="27"/>
       <c r="K37" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N37" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27" t="s">
@@ -2797,17 +2731,15 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="17"/>
+      <c r="K38" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L38" s="17" t="n">
         <v>4</v>
@@ -2817,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17" t="s">
@@ -2848,17 +2780,15 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="17"/>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L39" s="17" t="n">
         <v>5</v>
@@ -2868,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17" t="s">
@@ -2881,7 +2811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
         <v>60</v>
       </c>
@@ -2899,17 +2829,15 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="L40" s="17" t="n">
         <v>5</v>
@@ -2919,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="17" t="s">
         <v>19</v>
@@ -2934,7 +2862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
         <v>60</v>
       </c>
@@ -2952,15 +2880,13 @@
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>61</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J41" s="17"/>
       <c r="K41" s="17" t="n">
         <v>2</v>
       </c>
@@ -2972,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17" t="s">
@@ -3003,20 +2929,18 @@
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J42" s="17"/>
       <c r="K42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="n">
@@ -3034,7 +2958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
         <v>60</v>
       </c>
@@ -3052,15 +2976,13 @@
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="17"/>
-      <c r="J43" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J43" s="17"/>
       <c r="K43" s="17" t="n">
         <v>2</v>
       </c>
@@ -3073,7 +2995,7 @@
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q43" s="17" t="s">
         <v>19</v>
@@ -3085,7 +3007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>60</v>
       </c>
@@ -3103,20 +3025,18 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17" t="n">
@@ -3124,7 +3044,7 @@
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="17" t="s">
         <v>19</v>
@@ -3136,7 +3056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
         <v>62</v>
       </c>
@@ -3154,17 +3074,15 @@
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="20"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="20"/>
+      <c r="K45" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="L45" s="20" t="n">
         <v>5</v>
@@ -3174,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q45" s="20" t="s">
         <v>19</v>
@@ -3189,7 +3107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
         <v>62</v>
       </c>
@@ -3207,30 +3125,28 @@
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" s="20"/>
-      <c r="J46" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J46" s="20"/>
       <c r="K46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>19</v>
@@ -3242,7 +3158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
         <v>62</v>
       </c>
@@ -3260,15 +3176,13 @@
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="J47" s="20"/>
       <c r="K47" s="20" t="n">
         <v>2</v>
       </c>
@@ -3280,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="20" t="s">
         <v>19</v>
@@ -3295,7 +3209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
         <v>63</v>
       </c>
@@ -3313,27 +3227,25 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="23"/>
-      <c r="J48" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="J48" s="23"/>
       <c r="K48" s="23" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P48" s="23"/>
       <c r="Q48" s="23" t="s">
@@ -3346,7 +3258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
         <v>64</v>
       </c>
@@ -3364,17 +3276,15 @@
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I49" s="27"/>
-      <c r="J49" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J49" s="27"/>
       <c r="K49" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L49" s="27" t="n">
         <v>4</v>
@@ -3384,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="27" t="s">
@@ -3415,27 +3325,25 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="27"/>
-      <c r="J50" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M50" s="27"/>
       <c r="N50" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="27" t="s">
@@ -3448,7 +3356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
         <v>64</v>
       </c>
@@ -3466,27 +3374,25 @@
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I51" s="27"/>
-      <c r="J51" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J51" s="27"/>
       <c r="K51" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M51" s="27"/>
       <c r="N51" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="27" t="s">
@@ -3517,15 +3423,13 @@
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I52" s="27"/>
-      <c r="J52" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J52" s="27"/>
       <c r="K52" s="27" t="n">
         <v>4</v>
       </c>
@@ -3537,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="27" t="s">
@@ -3568,17 +3472,15 @@
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J53" s="27"/>
       <c r="K53" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" s="27" t="n">
         <v>5</v>
@@ -3588,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
@@ -3601,7 +3503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
         <v>64</v>
       </c>
@@ -3619,17 +3521,15 @@
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I54" s="27"/>
-      <c r="J54" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J54" s="27"/>
       <c r="K54" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L54" s="27" t="n">
         <v>5</v>
@@ -3639,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
@@ -3652,7 +3552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
         <v>64</v>
       </c>
@@ -3670,15 +3570,13 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>61</v>
       </c>
       <c r="I55" s="27"/>
-      <c r="J55" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="J55" s="27"/>
       <c r="K55" s="27" t="n">
         <v>3</v>
       </c>
@@ -3690,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
@@ -3727,14 +3625,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.29081632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3767,7 +3665,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="34"/>
@@ -3783,7 +3681,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="34"/>
@@ -3799,7 +3697,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="34"/>
@@ -3815,7 +3713,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="34"/>
@@ -3824,14 +3722,14 @@
     </row>
     <row r="6" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="38"/>
@@ -3845,7 +3743,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3858,7 +3756,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3871,7 +3769,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5"/>
     </row>

--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="64">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Wine</t>
   </si>
   <si>
     <t xml:space="preserve">Fridge Door, Open Fridge, Ambient Shelf, Open Impulse Fridge, TWE Standalone Fridge, TWE Impulse Fridge Door, TWE Open Impulse Fridge, Impulse Fridge Door, Standalone Fridge</t>
@@ -654,20 +651,20 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topRight" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="24.5663265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -726,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="56.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -745,11 +742,11 @@
         <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="n">
@@ -765,13 +762,13 @@
         <v>20</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -799,7 +796,7 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="n">
@@ -815,22 +812,22 @@
         <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="80.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
@@ -842,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>21</v>
@@ -871,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -898,11 +895,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="50.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +938,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
@@ -958,7 +955,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -999,23 +996,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="14" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="14" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -1050,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -1062,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>14</v>
@@ -1079,10 +1076,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>1</v>
@@ -1095,37 +1092,37 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="N2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="17" t="n">
         <v>1</v>
@@ -1138,37 +1135,37 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="17" t="n">
         <v>1</v>
@@ -1181,39 +1178,39 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="17" t="n">
         <v>1</v>
@@ -1232,31 +1229,31 @@
         <v>3</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="17" t="n">
         <v>1</v>
@@ -1269,37 +1266,37 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="17" t="n">
         <v>1</v>
@@ -1318,33 +1315,33 @@
         <v>4</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="17" t="n">
         <v>1</v>
@@ -1357,39 +1354,39 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="s">
+      <c r="Q8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="17" t="s">
+      <c r="R8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>2</v>
@@ -1402,39 +1399,39 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>2</v>
@@ -1453,33 +1450,33 @@
         <v>4</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="R10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>2</v>
@@ -1492,39 +1489,39 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="M11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="20" t="s">
+      <c r="R11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>3</v>
@@ -1540,34 +1537,34 @@
         <v>1</v>
       </c>
       <c r="L12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="N12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>4</v>
@@ -1586,31 +1583,31 @@
         <v>4</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>4</v>
@@ -1623,37 +1620,37 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="27" t="n">
         <v>4</v>
@@ -1666,37 +1663,37 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="27" t="n">
         <v>4</v>
@@ -1715,29 +1712,29 @@
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>4</v>
@@ -1750,35 +1747,35 @@
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="27" t="n">
         <v>4</v>
@@ -1791,35 +1788,35 @@
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N18" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="27" t="n">
         <v>4</v>
@@ -1832,35 +1829,35 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17" t="n">
         <v>1</v>
@@ -1871,43 +1868,43 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="N20" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17" t="n">
         <v>1</v>
@@ -1918,43 +1915,43 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17" t="n">
         <v>1</v>
@@ -1965,45 +1962,45 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="17" t="n">
         <v>5</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="17" t="n">
         <v>1</v>
@@ -2014,7 +2011,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -2026,31 +2023,31 @@
         <v>3</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="17" t="n">
         <v>1</v>
@@ -2061,43 +2058,43 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="M24" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17" t="n">
         <v>1</v>
@@ -2108,7 +2105,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -2120,33 +2117,33 @@
         <v>4</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="n">
         <v>1</v>
@@ -2157,45 +2154,45 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="Q26" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="20" t="n">
         <v>2</v>
@@ -2206,45 +2203,45 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="20" t="n">
         <v>2</v>
@@ -2255,45 +2252,45 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="M28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="20" t="n">
         <v>2</v>
@@ -2304,7 +2301,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="20"/>
@@ -2316,33 +2313,33 @@
         <v>4</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N29" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>3</v>
@@ -2353,7 +2350,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -2362,34 +2359,34 @@
         <v>1</v>
       </c>
       <c r="L30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="N30" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="27" t="n">
         <v>4</v>
@@ -2400,7 +2397,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -2412,31 +2409,31 @@
         <v>4</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="27" t="n">
         <v>4</v>
@@ -2447,43 +2444,43 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L32" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="27" t="n">
         <v>4</v>
@@ -2494,43 +2491,43 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="27" t="n">
         <v>5</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N33" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="27" t="n">
         <v>4</v>
@@ -2541,7 +2538,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -2553,31 +2550,31 @@
         <v>3</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N34" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="27" t="n">
         <v>4</v>
@@ -2588,43 +2585,43 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="27" t="n">
         <v>4</v>
@@ -2635,43 +2632,43 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="27" t="n">
         <v>4</v>
@@ -2682,43 +2679,43 @@
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" s="27" t="n">
         <v>4</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="17" t="n">
         <v>1</v>
@@ -2731,15 +2728,15 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" s="17" t="n">
         <v>4</v>
@@ -2749,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17" t="s">
@@ -2759,15 +2756,15 @@
         <v>9</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="17" t="n">
         <v>1</v>
@@ -2780,15 +2777,15 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39" s="17" t="n">
         <v>5</v>
@@ -2798,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17" t="s">
@@ -2808,15 +2805,15 @@
         <v>9</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="17" t="n">
         <v>1</v>
@@ -2829,15 +2826,15 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" s="17" t="n">
         <v>5</v>
@@ -2847,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q40" s="17" t="s">
         <v>19</v>
@@ -2859,15 +2856,15 @@
         <v>9</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="17" t="n">
         <v>1</v>
@@ -2880,10 +2877,10 @@
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -2898,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17" t="s">
@@ -2908,15 +2905,15 @@
         <v>9</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="17" t="n">
         <v>1</v>
@@ -2929,18 +2926,18 @@
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17" t="n">
@@ -2955,15 +2952,15 @@
         <v>9</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17" t="n">
         <v>1</v>
@@ -2976,10 +2973,10 @@
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2995,7 +2992,7 @@
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="17" t="s">
         <v>19</v>
@@ -3004,15 +3001,15 @@
         <v>9</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="17" t="n">
         <v>1</v>
@@ -3025,18 +3022,18 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17" t="n">
@@ -3044,7 +3041,7 @@
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="17" t="s">
         <v>19</v>
@@ -3053,15 +3050,15 @@
         <v>9</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="20" t="n">
         <v>2</v>
@@ -3074,15 +3071,15 @@
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45" s="20" t="n">
         <v>5</v>
@@ -3092,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q45" s="20" t="s">
         <v>19</v>
@@ -3104,15 +3101,15 @@
         <v>9</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="20" t="n">
         <v>2</v>
@@ -3125,28 +3122,28 @@
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="20" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>19</v>
@@ -3155,15 +3152,15 @@
         <v>9</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="20" t="n">
         <v>2</v>
@@ -3176,10 +3173,10 @@
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -3194,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q47" s="20" t="s">
         <v>19</v>
@@ -3206,15 +3203,15 @@
         <v>9</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>3</v>
@@ -3227,10 +3224,10 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -3238,14 +3235,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23" t="n">
         <v>1</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P48" s="23"/>
       <c r="Q48" s="23" t="s">
@@ -3255,15 +3252,15 @@
         <v>9</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="27" t="n">
         <v>4</v>
@@ -3276,15 +3273,15 @@
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L49" s="27" t="n">
         <v>4</v>
@@ -3294,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="27" t="s">
@@ -3304,15 +3301,15 @@
         <v>9</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="27" t="n">
         <v>4</v>
@@ -3325,25 +3322,25 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M50" s="27"/>
       <c r="N50" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="27" t="s">
@@ -3353,15 +3350,15 @@
         <v>9</v>
       </c>
       <c r="S50" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="27" t="n">
         <v>4</v>
@@ -3374,25 +3371,25 @@
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" s="27"/>
       <c r="N51" s="27" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="27" t="s">
@@ -3402,15 +3399,15 @@
         <v>9</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="27" t="n">
         <v>4</v>
@@ -3423,10 +3420,10 @@
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
@@ -3441,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="27" t="s">
@@ -3451,15 +3448,15 @@
         <v>9</v>
       </c>
       <c r="S52" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="27" t="n">
         <v>4</v>
@@ -3472,15 +3469,15 @@
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" s="27" t="n">
         <v>5</v>
@@ -3490,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
@@ -3500,15 +3497,15 @@
         <v>9</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="27" t="n">
         <v>4</v>
@@ -3521,15 +3518,15 @@
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L54" s="27" t="n">
         <v>5</v>
@@ -3539,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
@@ -3549,15 +3546,15 @@
         <v>9</v>
       </c>
       <c r="S54" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="27" t="n">
         <v>4</v>
@@ -3570,10 +3567,10 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
@@ -3588,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
@@ -3598,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="S55" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3625,14 +3622,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3658,14 +3655,14 @@
     </row>
     <row r="2" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="34"/>
@@ -3674,14 +3671,14 @@
     </row>
     <row r="3" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="34"/>
@@ -3690,14 +3687,14 @@
     </row>
     <row r="4" customFormat="false" ht="38.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="34"/>
@@ -3706,14 +3703,14 @@
     </row>
     <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="34"/>
@@ -3722,54 +3719,54 @@
     </row>
     <row r="6" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5"/>
     </row>

--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{140D88AA-AADE-4731-9B3E-9D9457165ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linear KPI" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Linear Category" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Zone Based KPI" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Zone Based Category" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Linear KPI" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear Category" sheetId="2" r:id="rId2"/>
+    <sheet name="Zone Based KPI" sheetId="3" r:id="rId3"/>
+    <sheet name="Zone Based Category" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Zone Based KPI'!$A$1:$AMK$55</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,177 +31,254 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="64">
-  <si>
-    <t xml:space="preserve">kpi_parent_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpi_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpi_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_1_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_2_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter_entity_3_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRO_LINEAR_OWN_MANF_CAT_OUT_OF_STORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fridge Door, Open Fridge, Ambient Shelf, Open Impulse Fridge, TWE Standalone Fridge, TWE Impulse Fridge Door, TWE Open Impulse Fridge, Impulse Fridge Door, Standalone Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_OUT_OF_STORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRO_LINEAR_ALL_MANF_CAT_PER_SCENE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_policy_from_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude_include_policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_ZONE1_SKU_ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standalone Fridge,
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="65">
+  <si>
+    <t>kpi_parent_name</t>
+  </si>
+  <si>
+    <t>kpi_name</t>
+  </si>
+  <si>
+    <t>kpi_type</t>
+  </si>
+  <si>
+    <t>filter_entity_1</t>
+  </si>
+  <si>
+    <t>filter_entity_2</t>
+  </si>
+  <si>
+    <t>filter_entity_3</t>
+  </si>
+  <si>
+    <t>filter_entity_1_value</t>
+  </si>
+  <si>
+    <t>filter_entity_2_value</t>
+  </si>
+  <si>
+    <t>filter_entity_3_value</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>store_type</t>
+  </si>
+  <si>
+    <t>stacking</t>
+  </si>
+  <si>
+    <t>brand_others</t>
+  </si>
+  <si>
+    <t>brand_irrelevant</t>
+  </si>
+  <si>
+    <t>numerator_fk</t>
+  </si>
+  <si>
+    <t>denominator_fk</t>
+  </si>
+  <si>
+    <t>context_fk</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>MACRO_LINEAR_OWN_MANF_CAT_OUT_OF_STORE</t>
+  </si>
+  <si>
+    <t>manufacturer_name</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>MACRO_LINEAR_ALL_MANF_CAT_OUT_OF_STORE</t>
+  </si>
+  <si>
+    <t>MACRO_LINEAR_ALL_MANF_CAT_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>shelf_policy_from_top</t>
+  </si>
+  <si>
+    <t>number_of_shelves</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
+  </si>
+  <si>
+    <t>exclude_include_policy</t>
+  </si>
+  <si>
+    <t>SIMON_ZONE1_SKU_ALL</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>Open Fridge</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>product_fk</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Standalone Fridge,
 TWE Standalone Fridge,
 Fridge Door</t>
   </si>
   <si>
-    <t xml:space="preserve">Excl(1,N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Impulse Fridge,
-TWE Open Impulse Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excl (1,N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_ZONE2_SKU_ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only(1,N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_ZONE3_SKU_ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4,5,6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Fridge,
-Fridge Door,
-Open Impulse Fridge,
-Standalone Fridge,
-TWE Open Impulse Fridge,
-TWE Standalone Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_ZONE4_SKU_ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5</t>
-  </si>
-  <si>
+    <t>Excl(1,N)</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>Excl (1,N)</t>
+  </si>
+  <si>
+    <t>SIMON_ZONE2_SKU_ALL</t>
+  </si>
+  <si>
+    <t>Only(1,N)</t>
+  </si>
+  <si>
+    <t>SIMON_ZONE3_SKU_ALL</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>SIMON_ZONE4_SKU_ALL</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>ZONE1_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t>Treasury Wine Estates</t>
+  </si>
+  <si>
+    <t>ZONE2_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t>ZONE3_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t>ZONE4_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t>ZONE1_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t>ZONE2_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t>ZONE3_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t>ZONE4_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t>Fridge Door, Open Fridge, Ambient Shelf, Open Impulse Fridge, TWE Standalone Fridge, TWE Impulse Fridge Door, TWE Open Impulse Fridge, Impulse Fridge Door, Standalone Fridge, Impulse Fridge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open Impulse Fridge,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>TWE Open Impulse Fridge</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Ariel"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t>,
+Impulse Fridge</t>
+    </r>
+  </si>
+  <si>
+    <t>Open Fridge,
+Fridge Door,
+Open Impulse Fridge,
+Standalone Fridge,
+TWE Open Impulse Fridge,
+TWE Standalone Fridge, Impulse Fridge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open Impulse Fridge,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>TWE Open Impulse Fridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ariel"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, Impulse Fridge</t>
+    </r>
+  </si>
+  <si>
+    <t>Open Impulse Fridge,
+TWE Open Impulse Fridge, Impulse Fridge</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Open Impulse Fridge,
 </t>
     </r>
@@ -205,94 +290,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TWE Open Impulse Fridge</t>
+      <t>TWE Open Impulse Fridge</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE1_OWN_MANUFACTURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treasury Wine Estates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE2_OWN_MANUFACTURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE3_OWN_MANUFACTURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE4_OWN_MANUFACTURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE1_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Ariel"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Open Impulse Fridge,
-</t>
+      <t>, Impulse Fridge</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TWE Open Impulse Fridge</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE2_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE3_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE4_OWN_MANUFACTURER_PER_SCENE_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -305,7 +325,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Ariel"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -316,11 +335,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Ariel"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -370,216 +388,151 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -638,36 +591,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="24.5663265306122"/>
+    <col min="1" max="1" width="46.7109375" style="1"/>
+    <col min="2" max="3" width="46.7109375" style="2"/>
+    <col min="4" max="7" width="24.5703125" style="2"/>
+    <col min="8" max="8" width="35.7109375" style="2"/>
+    <col min="9" max="9" width="24.5703125" style="2"/>
+    <col min="10" max="10" width="40.42578125" style="2"/>
+    <col min="11" max="1025" width="24.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -723,7 +983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="56.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" ht="63.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -746,40 +1006,40 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="n">
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
         <v>0</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="63.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -796,38 +1056,38 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6" t="n">
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
         <v>0</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="80.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="114.75">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
@@ -839,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>21</v>
@@ -849,13 +1109,13 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9" t="n">
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
         <v>0</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -868,14 +1128,13 @@
         <v>19</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -883,26 +1142,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.58673469387755"/>
+    <col min="1" max="1" width="49.85546875" style="10"/>
+    <col min="2" max="2" width="10.28515625" style="10"/>
+    <col min="3" max="3" width="15.140625" style="10"/>
+    <col min="4" max="5" width="14.85546875" style="10"/>
+    <col min="6" max="1025" width="9.5703125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -919,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -936,9 +1192,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
@@ -953,9 +1209,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -971,10 +1227,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -982,40 +1237,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="14" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="14" width="11.0714285714286"/>
+    <col min="1" max="2" width="44.7109375" style="14"/>
+    <col min="3" max="3" width="5.28515625" style="14"/>
+    <col min="4" max="4" width="19.28515625" style="10"/>
+    <col min="5" max="5" width="15.5703125" style="14"/>
+    <col min="6" max="6" width="13.42578125" style="14"/>
+    <col min="7" max="7" width="20.42578125" style="10"/>
+    <col min="8" max="9" width="19.28515625" style="14"/>
+    <col min="10" max="10" width="10.5703125" style="14"/>
+    <col min="11" max="11" width="20.85546875" style="14"/>
+    <col min="12" max="12" width="18.42578125" style="14"/>
+    <col min="13" max="13" width="15.5703125" style="14"/>
+    <col min="14" max="14" width="8.7109375" style="14"/>
+    <col min="15" max="15" width="9.5703125" style="14"/>
+    <col min="16" max="16" width="21.7109375" style="14"/>
+    <col min="17" max="17" width="19.28515625" style="14"/>
+    <col min="18" max="18" width="15.5703125" style="14"/>
+    <col min="19" max="1025" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" s="10" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -1047,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>9</v>
@@ -1059,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>14</v>
@@ -1074,14 +1325,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19">
       <c r="A2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="17"/>
@@ -1092,39 +1343,39 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="17">
+        <v>4</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="17">
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17"/>
@@ -1135,39 +1386,39 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="17">
+        <v>5</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" spans="1:19" ht="63.75">
       <c r="A4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="17"/>
@@ -1178,41 +1429,41 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L4" s="17">
         <v>5</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:19" ht="63.75">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17"/>
@@ -1222,40 +1473,40 @@
       <c r="H5" s="18"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="17">
         <v>2</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="17">
         <v>3</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" s="17">
         <v>1</v>
       </c>
       <c r="D6" s="17"/>
@@ -1266,39 +1517,39 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:19" ht="63.75">
       <c r="A7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17"/>
@@ -1308,42 +1559,42 @@
       <c r="H7" s="18"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="17">
         <v>2</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="17">
         <v>4</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:19" ht="63.75">
       <c r="A8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17">
         <v>1</v>
       </c>
       <c r="D8" s="17"/>
@@ -1354,41 +1605,41 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="Q8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="63.75">
+      <c r="A9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="B9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20">
         <v>2</v>
       </c>
       <c r="D9" s="20"/>
@@ -1399,41 +1650,41 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L9" s="20">
         <v>5</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N9" s="20">
         <v>1</v>
       </c>
       <c r="O9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" spans="1:19" ht="63.75">
       <c r="A10" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20">
         <v>2</v>
       </c>
       <c r="D10" s="20"/>
@@ -1443,42 +1694,42 @@
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="20" t="n">
+      <c r="K10" s="20">
         <v>2</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="L10" s="20">
         <v>4</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N10" s="20">
         <v>1</v>
       </c>
       <c r="O10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="R10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" spans="1:19" ht="63.75">
       <c r="A11" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" s="20">
         <v>2</v>
       </c>
       <c r="D11" s="20"/>
@@ -1489,41 +1740,41 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N11" s="20">
         <v>1</v>
       </c>
       <c r="O11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="20" t="s">
+      <c r="R11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:19" ht="140.25">
       <c r="A12" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="23" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" s="23">
         <v>3</v>
       </c>
       <c r="D12" s="23"/>
@@ -1533,40 +1784,40 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="23">
         <v>1</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="23" t="n">
+        <v>61</v>
+      </c>
+      <c r="N12" s="23">
         <v>1</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C13" s="27">
         <v>4</v>
       </c>
       <c r="D13" s="27"/>
@@ -1576,40 +1827,40 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" s="27" t="n">
+      <c r="K13" s="27">
+        <v>4</v>
+      </c>
+      <c r="L13" s="27">
         <v>4</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N13" s="27">
         <v>1</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" s="27">
         <v>4</v>
       </c>
       <c r="D14" s="27"/>
@@ -1620,39 +1871,39 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L14" s="27">
         <v>5</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N14" s="27">
         <v>1</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="63.75">
       <c r="A15" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" s="27">
         <v>4</v>
       </c>
       <c r="D15" s="27"/>
@@ -1663,39 +1914,39 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L15" s="27">
         <v>5</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N15" s="27">
         <v>1</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="62.25">
       <c r="A16" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" s="27">
         <v>4</v>
       </c>
       <c r="D16" s="27"/>
@@ -1705,38 +1956,38 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="27" t="n">
+      <c r="K16" s="27">
         <v>3</v>
       </c>
-      <c r="L16" s="27" t="n">
+      <c r="L16" s="27">
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="27" t="n">
+        <v>64</v>
+      </c>
+      <c r="N16" s="27">
         <v>1</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19">
       <c r="A17" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C17" s="27">
         <v>4</v>
       </c>
       <c r="D17" s="27"/>
@@ -1747,37 +1998,37 @@
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N17" s="27">
         <v>1</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="63.75">
       <c r="A18" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" s="27">
         <v>4</v>
       </c>
       <c r="D18" s="27"/>
@@ -1788,37 +2039,37 @@
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="27" t="n">
+        <v>49</v>
+      </c>
+      <c r="L18" s="27">
         <v>4</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N18" s="27">
         <v>1</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="63.75">
       <c r="A19" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C19" s="27">
         <v>4</v>
       </c>
       <c r="D19" s="27"/>
@@ -1829,37 +2080,37 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N19" s="27">
         <v>1</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -1868,45 +2119,45 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="17">
+        <v>4</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="17" t="n">
+      <c r="N20" s="17">
         <v>1</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -1915,45 +2166,45 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="17">
+        <v>5</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="17" t="n">
+      <c r="N21" s="17">
         <v>1</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="63.75">
       <c r="A22" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -1962,47 +2213,47 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L22" s="17">
         <v>5</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="N22" s="17">
         <v>1</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="63.75">
       <c r="A23" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="17">
         <v>1</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2011,45 +2262,45 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="17" t="n">
+      <c r="K23" s="17">
         <v>2</v>
       </c>
-      <c r="L23" s="17" t="n">
+      <c r="L23" s="17">
         <v>3</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="N23" s="17">
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17">
         <v>1</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2058,45 +2309,45 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="N24" s="17">
         <v>1</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="63.75">
       <c r="A25" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="17">
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -2105,47 +2356,47 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="17" t="n">
+      <c r="K25" s="17">
         <v>2</v>
       </c>
-      <c r="L25" s="17" t="n">
+      <c r="L25" s="17">
         <v>4</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="N25" s="17">
         <v>1</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="63.75">
       <c r="A26" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" s="17">
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2154,47 +2405,47 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="Q26" s="30" t="s">
         <v>19</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="63.75">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C27" s="20">
         <v>2</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -2203,47 +2454,47 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L27" s="20">
         <v>5</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N27" s="20">
         <v>1</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="63.75">
       <c r="A28" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C28" s="20">
         <v>2</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -2252,47 +2503,47 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N28" s="20">
         <v>1</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="63.75">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C29" s="20">
         <v>2</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -2301,47 +2552,47 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="20" t="n">
+      <c r="K29" s="20">
         <v>2</v>
       </c>
-      <c r="L29" s="20" t="n">
+      <c r="L29" s="20">
         <v>4</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="N29" s="20">
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="140.25">
       <c r="A30" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="23" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30" s="23">
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -2350,45 +2601,45 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
-      <c r="K30" s="23" t="n">
+      <c r="K30" s="23">
         <v>1</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="23" t="n">
+        <v>61</v>
+      </c>
+      <c r="N30" s="23">
         <v>1</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C31" s="27">
         <v>4</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -2397,45 +2648,45 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="L31" s="27" t="n">
+      <c r="K31" s="27">
+        <v>4</v>
+      </c>
+      <c r="L31" s="27">
         <v>4</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N31" s="27">
         <v>1</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C32" s="27">
         <v>4</v>
       </c>
       <c r="D32" s="27" t="s">
@@ -2444,45 +2695,45 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L32" s="27">
         <v>5</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N32" s="27">
         <v>1</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="63.75">
       <c r="A33" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C33" s="27">
         <v>4</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -2491,45 +2742,45 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L33" s="27">
         <v>5</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N33" s="27">
         <v>1</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="62.25">
       <c r="A34" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C34" s="27">
         <v>4</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2538,45 +2789,45 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="27" t="n">
+      <c r="K34" s="27">
         <v>3</v>
       </c>
-      <c r="L34" s="27" t="n">
+      <c r="L34" s="27">
         <v>3</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="27" t="n">
+        <v>64</v>
+      </c>
+      <c r="N34" s="27">
         <v>1</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C35" s="27">
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -2585,45 +2836,45 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N35" s="27">
         <v>1</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="63.75">
       <c r="A36" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C36" s="27">
         <v>4</v>
       </c>
       <c r="D36" s="27" t="s">
@@ -2632,45 +2883,45 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N36" s="27">
         <v>1</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="63.75">
       <c r="A37" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C37" s="27">
         <v>4</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -2679,45 +2930,45 @@
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="27" t="n">
+        <v>49</v>
+      </c>
+      <c r="L37" s="27">
         <v>4</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N37" s="27">
         <v>1</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C38" s="17">
         <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -2728,25 +2979,25 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L38" s="17">
         <v>4</v>
       </c>
       <c r="M38" s="17"/>
-      <c r="N38" s="17" t="n">
+      <c r="N38" s="17">
         <v>1</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17" t="s">
@@ -2756,17 +3007,17 @@
         <v>9</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C39" s="17">
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2777,25 +3028,25 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L39" s="17">
         <v>5</v>
       </c>
       <c r="M39" s="17"/>
-      <c r="N39" s="17" t="n">
+      <c r="N39" s="17">
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17" t="s">
@@ -2805,17 +3056,17 @@
         <v>9</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="51">
       <c r="A40" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" s="17">
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -2826,28 +3077,28 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L40" s="17">
         <v>5</v>
       </c>
       <c r="M40" s="17"/>
-      <c r="N40" s="17" t="n">
+      <c r="N40" s="17">
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="17" t="s">
         <v>19</v>
@@ -2856,17 +3107,17 @@
         <v>9</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="51">
       <c r="A41" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C41" s="17">
         <v>1</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -2877,25 +3128,25 @@
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>60</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="17" t="n">
+      <c r="K41" s="17">
         <v>2</v>
       </c>
-      <c r="L41" s="17" t="n">
+      <c r="L41" s="17">
         <v>3</v>
       </c>
       <c r="M41" s="17"/>
-      <c r="N41" s="17" t="n">
+      <c r="N41" s="17">
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17" t="s">
@@ -2905,17 +3156,17 @@
         <v>9</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C42" s="17">
         <v>1</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -2926,21 +3177,21 @@
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M42" s="17"/>
-      <c r="N42" s="17" t="n">
+      <c r="N42" s="17">
         <v>1</v>
       </c>
       <c r="O42" s="17"/>
@@ -2952,17 +3203,17 @@
         <v>9</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="51">
       <c r="A43" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C43" s="17">
         <v>1</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -2973,26 +3224,26 @@
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="17" t="n">
+      <c r="K43" s="17">
         <v>2</v>
       </c>
-      <c r="L43" s="17" t="n">
+      <c r="L43" s="17">
         <v>4</v>
       </c>
       <c r="M43" s="17"/>
-      <c r="N43" s="17" t="n">
+      <c r="N43" s="17">
         <v>1</v>
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="17" t="s">
         <v>19</v>
@@ -3001,17 +3252,17 @@
         <v>9</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="51">
       <c r="A44" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C44" s="17">
         <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3022,26 +3273,26 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M44" s="17"/>
-      <c r="N44" s="17" t="n">
+      <c r="N44" s="17">
         <v>1</v>
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="17" t="s">
         <v>19</v>
@@ -3050,17 +3301,17 @@
         <v>9</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="51">
       <c r="A45" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="20" t="n">
+        <v>56</v>
+      </c>
+      <c r="C45" s="20">
         <v>2</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -3071,28 +3322,28 @@
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L45" s="20">
         <v>5</v>
       </c>
       <c r="M45" s="21"/>
-      <c r="N45" s="20" t="n">
+      <c r="N45" s="20">
         <v>1</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q45" s="20" t="s">
         <v>19</v>
@@ -3101,17 +3352,17 @@
         <v>9</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="51">
       <c r="A46" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="20" t="n">
+        <v>56</v>
+      </c>
+      <c r="C46" s="20">
         <v>2</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -3122,28 +3373,28 @@
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M46" s="21"/>
-      <c r="N46" s="20" t="n">
+      <c r="N46" s="20">
         <v>1</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>19</v>
@@ -3152,17 +3403,17 @@
         <v>9</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="51">
       <c r="A47" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="20" t="n">
+        <v>56</v>
+      </c>
+      <c r="C47" s="20">
         <v>2</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -3173,28 +3424,28 @@
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
-      <c r="K47" s="20" t="n">
+      <c r="K47" s="20">
         <v>2</v>
       </c>
-      <c r="L47" s="20" t="n">
+      <c r="L47" s="20">
         <v>4</v>
       </c>
       <c r="M47" s="21"/>
-      <c r="N47" s="20" t="n">
+      <c r="N47" s="20">
         <v>1</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="20" t="s">
         <v>19</v>
@@ -3203,17 +3454,17 @@
         <v>9</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="114.75">
       <c r="A48" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="23" t="n">
+        <v>57</v>
+      </c>
+      <c r="C48" s="23">
         <v>3</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -3224,25 +3475,25 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="23" t="n">
+      <c r="K48" s="23">
         <v>1</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M48" s="23"/>
-      <c r="N48" s="23" t="n">
+      <c r="N48" s="23">
         <v>1</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P48" s="23"/>
       <c r="Q48" s="23" t="s">
@@ -3252,17 +3503,17 @@
         <v>9</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="51">
       <c r="A49" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C49" s="27">
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
@@ -3273,25 +3524,25 @@
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L49" s="27" t="n">
+        <v>49</v>
+      </c>
+      <c r="L49" s="27">
         <v>4</v>
       </c>
       <c r="M49" s="27"/>
-      <c r="N49" s="27" t="n">
+      <c r="N49" s="27">
         <v>1</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="27" t="s">
@@ -3301,17 +3552,17 @@
         <v>9</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C50" s="27">
         <v>4</v>
       </c>
       <c r="D50" s="27" t="s">
@@ -3322,25 +3573,25 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M50" s="27"/>
-      <c r="N50" s="27" t="n">
+      <c r="N50" s="27">
         <v>1</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="27" t="s">
@@ -3350,17 +3601,17 @@
         <v>9</v>
       </c>
       <c r="S50" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="51">
       <c r="A51" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C51" s="27">
         <v>4</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -3371,25 +3622,25 @@
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M51" s="27"/>
-      <c r="N51" s="27" t="n">
+      <c r="N51" s="27">
         <v>1</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="27" t="s">
@@ -3399,17 +3650,17 @@
         <v>9</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C52" s="27">
         <v>4</v>
       </c>
       <c r="D52" s="27" t="s">
@@ -3420,25 +3671,25 @@
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
-      <c r="K52" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="L52" s="27" t="n">
+      <c r="K52" s="27">
+        <v>4</v>
+      </c>
+      <c r="L52" s="27">
         <v>4</v>
       </c>
       <c r="M52" s="27"/>
-      <c r="N52" s="27" t="n">
+      <c r="N52" s="27">
         <v>1</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="27" t="s">
@@ -3448,17 +3699,17 @@
         <v>9</v>
       </c>
       <c r="S52" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C53" s="27">
         <v>4</v>
       </c>
       <c r="D53" s="27" t="s">
@@ -3469,25 +3720,25 @@
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L53" s="27">
         <v>5</v>
       </c>
       <c r="M53" s="27"/>
-      <c r="N53" s="27" t="n">
+      <c r="N53" s="27">
         <v>1</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
@@ -3497,17 +3748,17 @@
         <v>9</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="51">
       <c r="A54" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C54" s="27">
         <v>4</v>
       </c>
       <c r="D54" s="27" t="s">
@@ -3518,25 +3769,25 @@
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="27" t="n">
+        <v>47</v>
+      </c>
+      <c r="L54" s="27">
         <v>5</v>
       </c>
       <c r="M54" s="27"/>
-      <c r="N54" s="27" t="n">
+      <c r="N54" s="27">
         <v>1</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
@@ -3546,17 +3797,17 @@
         <v>9</v>
       </c>
       <c r="S54" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="51">
       <c r="A55" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C55" s="27">
         <v>4</v>
       </c>
       <c r="D55" s="27" t="s">
@@ -3567,25 +3818,25 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
-      <c r="K55" s="27" t="n">
+      <c r="K55" s="27">
         <v>3</v>
       </c>
-      <c r="L55" s="27" t="n">
+      <c r="L55" s="27">
         <v>3</v>
       </c>
       <c r="M55" s="27"/>
-      <c r="N55" s="27" t="n">
+      <c r="N55" s="27">
         <v>1</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
@@ -3595,14 +3846,14 @@
         <v>9</v>
       </c>
       <c r="S55" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:AMK55" xr:uid="{33C3A9CA-83B9-4472-8FED-2524F508666A}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3610,30 +3861,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.0765306122449"/>
+    <col min="1" max="1" width="38.5703125" style="33"/>
+    <col min="2" max="2" width="17.85546875" style="33"/>
+    <col min="3" max="3" width="17.5703125" style="33"/>
+    <col min="4" max="4" width="14.5703125" style="33"/>
+    <col min="5" max="5" width="13" style="33"/>
+    <col min="6" max="6" width="12.7109375" style="10"/>
+    <col min="7" max="7" width="41.5703125" style="33"/>
+    <col min="8" max="1023" width="7.140625" style="33"/>
+    <col min="1024" max="1025" width="6.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="25.35" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3653,128 +3901,127 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="31.35" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="31.35" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" customFormat="false" ht="38.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="38.450000000000003" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="27.4" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="29.45" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="26.45" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="29.45" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="35.450000000000003" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Projects/TWEGAU/Data/Template.xlsx
+++ b/Projects/TWEGAU/Data/Template.xlsx
@@ -14,9 +14,8 @@
     <sheet name="Zone Based Category" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Zone Based KPI'!$A$1:$S$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Zone Based KPI'!$A$1:$S$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Zone Based KPI'!$A$1:$S$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Zone Based KPI'!$A$1:$S$88</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Zone Based KPI'!$A$1:$S$88</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="83">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -379,7 +378,7 @@
     <t xml:space="preserve">Impulse Fridge,Ambient Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">TWE Standalone Fridge,Standalone Fridge</t>
+    <t xml:space="preserve">TWE Standalone Fridge,Standalone Fridge, Fridge Door, Open Fridge</t>
   </si>
 </sst>
 </file>
@@ -594,16 +593,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -833,13 +832,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="45.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="24.3010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1070,11 +1069,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,95 +1160,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="P77" activeCellId="0" sqref="P77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="15" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="15" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="15" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="15" width="20.25"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="15" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="14" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="14" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="14" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="14" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="15" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -1335,7 +1333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="139.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
         <v>46</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
         <v>49</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
         <v>49</v>
       </c>
@@ -1863,7 +1861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="56.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
         <v>49</v>
       </c>
@@ -1904,7 +1902,7 @@
       </c>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +1943,7 @@
       </c>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
         <v>49</v>
       </c>
@@ -1986,7 +1984,7 @@
       </c>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
@@ -2027,7 +2025,7 @@
       </c>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
         <v>54</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
         <v>54</v>
       </c>
@@ -2170,7 +2168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="59.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
         <v>54</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
         <v>54</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
         <v>54</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
         <v>56</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="139.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
         <v>57</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
         <v>58</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
         <v>58</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
         <v>58</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="56.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
         <v>58</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
         <v>58</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
         <v>58</v>
       </c>
@@ -2838,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
         <v>58</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
         <v>59</v>
       </c>
@@ -2934,7 +2932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
         <v>59</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
         <v>59</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="191.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
         <v>59</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
@@ -3130,7 +3128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
         <v>59</v>
       </c>
@@ -3179,7 +3177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="s">
         <v>59</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
         <v>61</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
         <v>61</v>
       </c>
@@ -3330,7 +3328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
         <v>61</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="380.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="382.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
         <v>62</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
         <v>63</v>
       </c>
@@ -3479,7 +3477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
         <v>63</v>
       </c>
@@ -3528,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
         <v>63</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
         <v>63</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
         <v>63</v>
       </c>
@@ -3675,7 +3673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="162.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="s">
         <v>63</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="191.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="28" t="s">
         <v>63</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="35" t="s">
         <v>32</v>
       </c>
@@ -3814,7 +3812,7 @@
       </c>
       <c r="S56" s="36"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="35" t="s">
         <v>32</v>
       </c>
@@ -3855,7 +3853,7 @@
       </c>
       <c r="S57" s="36"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="35" t="s">
         <v>49</v>
       </c>
@@ -3896,7 +3894,7 @@
       </c>
       <c r="S58" s="36"/>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="35" t="s">
         <v>46</v>
       </c>
@@ -3937,7 +3935,7 @@
       </c>
       <c r="S59" s="36"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="35" t="s">
         <v>32</v>
       </c>
@@ -3978,7 +3976,7 @@
       </c>
       <c r="S60" s="36"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="35" t="s">
         <v>49</v>
       </c>
@@ -4019,7 +4017,7 @@
       </c>
       <c r="S61" s="36"/>
     </row>
-    <row r="62" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="35" t="s">
         <v>46</v>
       </c>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="S62" s="36"/>
     </row>
-    <row r="63" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="35" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4099,7 @@
       </c>
       <c r="S63" s="36"/>
     </row>
-    <row r="64" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="35" t="s">
         <v>49</v>
       </c>
@@ -4142,7 +4140,7 @@
       </c>
       <c r="S64" s="36"/>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="35" t="s">
         <v>46</v>
       </c>
@@ -4183,7 +4181,7 @@
       </c>
       <c r="S65" s="36"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="35" t="s">
         <v>32</v>
       </c>
@@ -4224,7 +4222,7 @@
       </c>
       <c r="S66" s="36"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="35" t="s">
         <v>49</v>
       </c>
@@ -5044,15 +5042,15 @@
       </c>
       <c r="S86" s="44"/>
     </row>
-    <row r="87" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C87" s="40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="42"/>
@@ -5062,7 +5060,7 @@
       <c r="I87" s="42"/>
       <c r="J87" s="42"/>
       <c r="K87" s="42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" s="42" t="n">
         <v>3</v>
@@ -5085,15 +5083,15 @@
       </c>
       <c r="S87" s="44"/>
     </row>
-    <row r="88" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C88" s="40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="42"/>
@@ -5103,7 +5101,7 @@
       <c r="I88" s="42"/>
       <c r="J88" s="42"/>
       <c r="K88" s="42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88" s="42" t="n">
         <v>3</v>
@@ -5126,49 +5124,8 @@
       </c>
       <c r="S88" s="44"/>
     </row>
-    <row r="89" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L89" s="42" t="n">
-        <v>3</v>
-      </c>
-      <c r="M89" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="N89" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R89" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="S89" s="44"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S77"/>
+  <autoFilter ref="A1:S88"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5193,14 +5150,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="45" width="40.5"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="45" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="45" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="45" width="7.02040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.0765306122449"/>
   </cols>
   <sheetData>
